--- a/PROJECTS MACRO/Profit Loss/07-02-2024/Macro/WO BUDGETING/Firawaty/Firawaty.xlsx
+++ b/PROJECTS MACRO/Profit Loss/07-02-2024/Macro/WO BUDGETING/Firawaty/Firawaty.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\07-02-2024\Macro\WO BUDGETING\Firawaty\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{234853D9-4780-485D-BE6A-E8BCB0C59918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C44DE874-BC3C-43F6-A860-E57D29ADC93E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{73C78CD1-2A17-4F90-A0C6-4A80764A2DFE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{939844E5-8917-44AB-847D-4D2FCAB6A508}"/>
   </bookViews>
   <sheets>
     <sheet name="Firawaty" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="41">
   <si>
     <t>Periode : February-2024</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>OK</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Eka</t>
@@ -762,8 +765,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C95448FB-F016-4139-9CC5-CE1BD24FD71F}">
-  <sheetPr codeName="Sheet18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BDF551B-A5AF-4D78-8617-2430E8DBFF54}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -975,7 +977,9 @@
       <c r="P6" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="Q6" s="31"/>
+      <c r="Q6" s="31" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
@@ -991,10 +995,10 @@
         <v>21</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G7" s="34">
         <v>450</v>
@@ -1024,7 +1028,9 @@
       <c r="P7" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="Q7" s="38"/>
+      <c r="Q7" s="38" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="8" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
@@ -1040,10 +1046,10 @@
         <v>21</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G8" s="27">
         <v>450</v>
@@ -1073,7 +1079,9 @@
       <c r="P8" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="Q8" s="31"/>
+      <c r="Q8" s="31" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="9" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
@@ -1089,10 +1097,10 @@
         <v>21</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F9" s="33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G9" s="34">
         <v>450</v>
@@ -1122,26 +1130,28 @@
       <c r="P9" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="Q9" s="38"/>
+      <c r="Q9" s="38" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="10" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D10" s="26" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G10" s="27">
         <v>6300</v>
@@ -1163,7 +1173,7 @@
         <v>0.92647058823529416</v>
       </c>
       <c r="N10" s="30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O10" s="26">
         <v>1</v>
@@ -1171,17 +1181,19 @@
       <c r="P10" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="Q10" s="31"/>
+      <c r="Q10" s="31" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="11" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D11" s="33" t="s">
         <v>21</v>
@@ -1214,34 +1226,36 @@
         <v>0</v>
       </c>
       <c r="N11" s="37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O11" s="33">
         <v>4</v>
       </c>
       <c r="P11" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q11" s="38"/>
+        <v>40</v>
+      </c>
+      <c r="Q11" s="38" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="12" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D12" s="26" t="s">
         <v>21</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G12" s="27">
         <v>100</v>
@@ -1265,7 +1279,7 @@
         <v>1.4705882352941176E-2</v>
       </c>
       <c r="N12" s="30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O12" s="26">
         <v>4</v>
@@ -1273,26 +1287,28 @@
       <c r="P12" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="Q12" s="31"/>
+      <c r="Q12" s="31" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="13" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="33" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F13" s="33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G13" s="34">
         <v>100</v>
@@ -1314,7 +1330,7 @@
         <v>1.4705882352941176E-2</v>
       </c>
       <c r="N13" s="37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="33">
         <v>4</v>
@@ -1322,26 +1338,28 @@
       <c r="P13" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="Q13" s="38"/>
+      <c r="Q13" s="38" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="14" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D14" s="26" t="s">
         <v>21</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G14" s="27">
         <v>100</v>
@@ -1363,7 +1381,7 @@
         <v>1.4705882352941176E-2</v>
       </c>
       <c r="N14" s="30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O14" s="26">
         <v>4</v>
@@ -1371,7 +1389,9 @@
       <c r="P14" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="Q14" s="31"/>
+      <c r="Q14" s="31" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="I3:I14">
@@ -1385,15 +1405,15 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{EAB650A0-EE98-4C7E-9E8F-5D6C2A117BD1}"/>
-    <hyperlink ref="B7" r:id="rId2" xr:uid="{55EF40C4-1397-426E-9699-9768923DAF8B}"/>
-    <hyperlink ref="B8" r:id="rId3" xr:uid="{29A3DCB0-9CD3-440B-9649-8C48B8FB96CB}"/>
-    <hyperlink ref="B9" r:id="rId4" xr:uid="{4E666A83-C6CD-41EC-9EFA-78805D9DC78F}"/>
-    <hyperlink ref="B10" r:id="rId5" xr:uid="{49ACD6FB-1AFA-418B-B623-098366683A8A}"/>
-    <hyperlink ref="B11" r:id="rId6" xr:uid="{8A5D34D7-EC09-4B3F-81E5-1C2BB66FC57F}"/>
-    <hyperlink ref="B12" r:id="rId7" xr:uid="{06D55667-F420-4861-A6E8-D27D026FD2D7}"/>
-    <hyperlink ref="B13" r:id="rId8" xr:uid="{7A8F532F-799B-438F-A9D3-33071218AE4D}"/>
-    <hyperlink ref="B14" r:id="rId9" xr:uid="{8B7D02AB-6C70-427D-B66E-F3BD82090ACF}"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{EF03B386-5060-4826-BAFF-8C3F91E829F4}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{B5FAB415-3F43-443F-AA51-32E0CBE7EEB2}"/>
+    <hyperlink ref="B8" r:id="rId3" xr:uid="{71D395B7-6CB2-448F-BF92-B9D20AB60244}"/>
+    <hyperlink ref="B9" r:id="rId4" xr:uid="{E50ABA02-0742-4CE8-A815-13649AF323A9}"/>
+    <hyperlink ref="B10" r:id="rId5" xr:uid="{71A20BDE-99EF-45C4-9A20-53C7C32BDCFB}"/>
+    <hyperlink ref="B11" r:id="rId6" xr:uid="{F1774EE9-DAC9-4117-BA0B-A01909C5750B}"/>
+    <hyperlink ref="B12" r:id="rId7" xr:uid="{D1A57BAD-3F71-46CE-B4C4-2539BE8A8DAF}"/>
+    <hyperlink ref="B13" r:id="rId8" xr:uid="{637A2011-ADD6-4633-AD20-6D15690ED298}"/>
+    <hyperlink ref="B14" r:id="rId9" xr:uid="{752CADE5-43A4-4D01-B1FD-D0247AF09234}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
